--- a/LFPs/Analysis_code_JM/utils/ratID_by_probe_type.xlsx
+++ b/LFPs/Analysis_code_JM/utils/ratID_by_probe_type.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\GitHub\ChoiceTask_Intan\LFPs\Analysis_code_JM\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD03592B-C59E-4B8C-9A64-5B762C3A7EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCF8110-5924-431D-9583-D4E58FCC10F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A418827-1FD0-489D-8DEB-02E12CC51DD7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>RatID</t>
   </si>
@@ -112,7 +112,25 @@
     <t>R0460</t>
   </si>
   <si>
-    <t>R0461</t>
+    <t>R0463</t>
+  </si>
+  <si>
+    <t>R0466</t>
+  </si>
+  <si>
+    <t>R0467</t>
+  </si>
+  <si>
+    <t>R0465</t>
+  </si>
+  <si>
+    <t>R0477</t>
+  </si>
+  <si>
+    <t>R0478</t>
+  </si>
+  <si>
+    <t>R0479</t>
   </si>
 </sst>
 </file>
@@ -503,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0081D8-FB6F-4927-9C27-D4B3A9EC6435}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,20 +689,65 @@
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>25</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
